--- a/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -24,19 +24,19 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitionerrole</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ROR_PractitionerRole</t>
+    <t>RORPractitionerRole</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-04-11T09:40:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Profil créé dans le cadre du ROR pour décrire les modalités d'exercice opérationnelles du profesionnel dans la réalisation de l'offre</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -317,13 +317,211 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>PractitionerRole.implicitRules</t>
+    <t>PractitionerRole.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Slicing pour gérer le code région définissant la région source des données</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag:codeRegion</t>
+  </si>
+  <si>
+    <t>codeRegion</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
+  </si>
+  <si>
+    <t>PractitionerRole.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -334,9 +532,6 @@
   </si>
   <si>
     <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>PractitionerRole.language</t>
@@ -419,127 +614,48 @@
     <t>PractitionerRole.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t>2</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:ror-practitionerrole-unit-exercise-mode</t>
+  </si>
+  <si>
+    <t>ror-practitionerrole-unit-exercise-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>modeExerciceOffre (SituationOperationnelle) : statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:ror-practitionerrole-name</t>
+  </si>
+  <si>
+    <t>ror-practitionerrole-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/RORPractitionerRoleName}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-name}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-name</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName {http://www.interopsante.org/fhir/structuredefinition/datatype/fr-human-name}
-</t>
-  </si>
-  <si>
-    <t>Name of a human - parts and usage</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
+    <t>civiliteExercie + nomExercice + prenomExercice (ExerciceProfessionnel)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour définir l'identité d’exercice d’un professionnel</t>
   </si>
   <si>
     <t>PractitionerRole.extension:contracted</t>
@@ -552,19 +668,49 @@
 </t>
   </si>
   <si>
+    <t>secteurConventionnement (SituationOperationnelle) : Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t>PractitionerRole.extension:contracted.id</t>
   </si>
   <si>
+    <t>PractitionerRole.extension.id</t>
+  </si>
+  <si>
     <t>PractitionerRole.extension:contracted.extension</t>
   </si>
   <si>
+    <t>PractitionerRole.extension.extension</t>
+  </si>
+  <si>
     <t>PractitionerRole.extension:contracted.url</t>
   </si>
   <si>
+    <t>PractitionerRole.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
     <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted</t>
   </si>
   <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
     <t>PractitionerRole.extension:contracted.value[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -577,323 +723,140 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>JDV_J218-CNAMAmeliSecteurConventionnement-RASS dérivé de la TRE_ R282-CNAMAmeliSecteurConventionnement</t>
   </si>
   <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J130-CNAMAmeliSecteurConventionnement-RASS/FHIR/JDV-J130-CNAMAmeliSecteurConventionnement-RASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:contracted.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:contracted.value[x].id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
+    <t>PractitionerRole.extension:optionCAS</t>
+  </si>
+  <si>
+    <t>optionCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R282-CNAMAmeliSecteurConventionnement/FHIR/TRE-R282-CNAMAmeliSecteurConventionnement</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.userSelected</t>
+    <t>optionContratAccèsAuxSoins (SituationOperationnelle) : L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:vitalAccepted</t>
+  </si>
+  <si>
+    <t>vitalAccepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted}
+</t>
+  </si>
+  <si>
+    <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t>ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-creation-date}
+</t>
+  </si>
+  <si>
+    <t>dateCreation (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:ror-meta-comment</t>
+  </si>
+  <si>
+    <t>ror-meta-comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-comment}
+</t>
+  </si>
+  <si>
+    <t>commentaire (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond au commentaire présent dans les métadonnées.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>identifiantSituationOperationnelle (SituationOperationnelle) : Identifiant de la situation opérationnelle, unique et persistant au niveau national</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].text</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:vitalAccepted</t>
-  </si>
-  <si>
-    <t>vitalAccepted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:optionCAAS</t>
-  </si>
-  <si>
-    <t>optionCAAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-unit-exercise-mode</t>
-  </si>
-  <si>
-    <t>ror-unit-exercise-mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-unit-exercise-mode}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.active</t>
-  </si>
-  <si>
     <t>Whether this practitioner role record is in active use</t>
   </si>
   <si>
@@ -996,7 +959,7 @@
     <t>PractitionerRole.code</t>
   </si>
   <si>
-    <t>Roles which this practitioner may perform</t>
+    <t>profession (ExerciceProfessionnel) : Profession exercée ou future profession de l'étudiant</t>
   </si>
   <si>
     <t>Roles which this practitioner is authorized to perform for the organization.</t>
@@ -1035,10 +998,6 @@
     <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
-  </si>
-  <si>
     <t>PRA-5</t>
   </si>
   <si>
@@ -1048,91 +1007,121 @@
     <t>./Specialty</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:ttpeSavoirFaireR04</t>
-  </si>
-  <si>
-    <t>ttpeSavoirFaireR04</t>
+    <t>PractitionerRole.specialty:expertiseType</t>
+  </si>
+  <si>
+    <t>expertiseType</t>
+  </si>
+  <si>
+    <t>typeSavoirFaire (SavoirFaire) : Type de savoir-faire (qualifications/autres attributions)</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:specialiteOrdinaleR38</t>
-  </si>
-  <si>
-    <t>specialiteOrdinaleR38</t>
+    <t>PractitionerRole.specialty:specialty</t>
+  </si>
+  <si>
+    <t>specialty</t>
+  </si>
+  <si>
+    <t>specialite (SavoirFaire) : Spécialité ordinale</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:competenceR39</t>
-  </si>
-  <si>
-    <t>competenceR39</t>
+    <t>PractitionerRole.specialty:competence</t>
+  </si>
+  <si>
+    <t>competence</t>
+  </si>
+  <si>
+    <t>competence (SavoirFaire) : Compétence acquise par le professionnel</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV-J232-Competence-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:competenceExclusiveR40</t>
-  </si>
-  <si>
-    <t>competenceExclusiveR40</t>
+    <t>PractitionerRole.specialty:exclusiveCompetence</t>
+  </si>
+  <si>
+    <t>exclusiveCompetence</t>
+  </si>
+  <si>
+    <t>competenceExclusive (SavoirFaire) : Compétence exclusive</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J211-CompetenceExclusive-ROR/FHIR/JDV-J211-CompetenceExclusive-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:orientationParticuliereG13</t>
-  </si>
-  <si>
-    <t>orientationParticuliereG13</t>
+    <t>PractitionerRole.specialty:specificOrientation</t>
+  </si>
+  <si>
+    <t>specificOrientation</t>
+  </si>
+  <si>
+    <t>orientationParticuliere (SavoirFaire) : Orientation particulière</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J212-OrientationParticuliere-ROR/FHIR/JDV-J212-OrientationParticuliere-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:capaciteSavoirFaireR43</t>
-  </si>
-  <si>
-    <t>capaciteSavoirFaireR43</t>
+    <t>PractitionerRole.specialty:expertiseCapacity</t>
+  </si>
+  <si>
+    <t>expertiseCapacity</t>
+  </si>
+  <si>
+    <t>capacite (SavoirFaire) : Capacité de médecine</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J213-CapaciteSavoirFaire-ROR/FHIR/JDV-J213-CapaciteSavoirFaire-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:qualificationPACR44</t>
-  </si>
-  <si>
-    <t>qualificationPACR44</t>
+    <t>PractitionerRole.specialty:qualificationPAC</t>
+  </si>
+  <si>
+    <t>qualificationPAC</t>
+  </si>
+  <si>
+    <t>qualificationPAC (SavoirFaire) : Qualification de praticien adjoint contractuel</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J214-QualificationPAC-ROR/FHIR/JDV-J214-QualificationPAC-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:DESCnonQualifiantR42</t>
-  </si>
-  <si>
-    <t>DESCnonQualifiantR42</t>
+    <t>PractitionerRole.specialty:nonQualifyingDESC</t>
+  </si>
+  <si>
+    <t>nonQualifyingDESC</t>
+  </si>
+  <si>
+    <t>DESCNonQualifiant (SavoirFaire) : Diplôme d'études spécialisées complémentaires (DESC)</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J215-DESCnonQualifiant-ROR/FHIR/JDV-J215-DESCnonQualifiant-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:droitExerciceComplementaireR97</t>
-  </si>
-  <si>
-    <t>droitExerciceComplementaireR97</t>
+    <t>PractitionerRole.specialty:supplementaryExerciseRight</t>
+  </si>
+  <si>
+    <t>supplementaryExerciseRight</t>
+  </si>
+  <si>
+    <t>droitExerciceComplémentaire (SavoirFaire) : Droit d'exercice complémentaire du professionnel</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J216-DroitExerciceCompl-ROR/FHIR/JDV-J216-DroitExerciceCompl-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:competenceSpecifiqueR243</t>
-  </si>
-  <si>
-    <t>competenceSpecifiqueR243</t>
+    <t>PractitionerRole.specialty:specificCompetence</t>
+  </si>
+  <si>
+    <t>specificCompetence</t>
+  </si>
+  <si>
+    <t>competenceSpecifique (SituationOperationnelle) : Capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J33-CompetenceSpecifique-ROR/FHIR/JDV-J33-CompetenceSpecifique-ROR</t>
@@ -1186,7 +1175,7 @@
 </t>
   </si>
   <si>
-    <t>Contact details that are specific to the role/location/service</t>
+    <t>telecommunication (SituationOperationnelle) : Adresse(s) de télécommunication du professionnel dans le cadre de l'offre décrite</t>
   </si>
   <si>
     <t>Contact details that are specific to the role/location/service.</t>
@@ -1214,39 +1203,54 @@
     <t>PractitionerRole.telecom.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.extension:usage</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
+    <t>PractitionerRole.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension:communicationChannel</t>
-  </si>
-  <si>
-    <t>communicationChannel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-communication-channel}
+    <t>canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension:ror-telecom-usage</t>
+  </si>
+  <si>
+    <t>ror-telecom-usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension:confidentialityLevel</t>
-  </si>
-  <si>
-    <t>confidentialityLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
+    <t>utilisation (Telecommunication) : Utilisation du canal de communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension:ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
+    <t>niveauConfidentialite (Telecommunication) : niveau de restriction de l'accès aux attributs de la classe Télécommunication</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.system</t>
   </si>
   <si>
@@ -1254,6 +1258,9 @@
   </si>
   <si>
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Telecommunications form for contact point.</t>
@@ -1281,7 +1288,7 @@
     <t>PractitionerRole.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
+    <t>adresseTelecom (Telecommunication) : Valeur de l'adresse de télécommunication dans le format induit par le canal de communication</t>
   </si>
   <si>
     <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
@@ -1382,7 +1389,7 @@
 </t>
   </si>
   <si>
-    <t>Times the Service Site is available</t>
+    <t>precisionHoraire (SituationOperationnelle) : planning d'activité du professionnel</t>
   </si>
   <si>
     <t>A collection of times the practitioner is available or performing this role at the location and/or healthcareservice.</t>
@@ -1400,24 +1407,52 @@
     <t>PractitionerRole.availableTime.extension</t>
   </si>
   <si>
-    <t>PractitionerRole.availableTime.extension:effectiveOpeningClosingDate</t>
-  </si>
-  <si>
-    <t>effectiveOpeningClosingDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t>PractitionerRole.availableTime.extension:ror-available-time-type-of-time</t>
+  </si>
+  <si>
+    <t>ror-available-time-type-of-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.availableTime.extension:typeOfTime</t>
-  </si>
-  <si>
-    <t>typeOfTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-available-time-type-of-time}
+    <t>typePlageHoraire (Horaire) : Apporte un contexte à la plage horaire définie par la suite</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date</t>
+  </si>
+  <si>
+    <t>ror-available-time-effective-opening-closing-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
+  </si>
+  <si>
+    <t>debutDateEffective + finDateEffective (Horaire)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour décrire le planning d'activité d'un professionnel ou d'une offre.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.extension:ror-available-time-number-days-of-week</t>
+  </si>
+  <si>
+    <t>ror-available-time-number-days-of-week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week}
+</t>
+  </si>
+  <si>
+    <t>jourSemaine (Horaire) : Numéro du jour dans la semaine</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour indiquer le numéro du jour dans la semaine.</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.modifierExtension</t>
@@ -1468,7 +1503,7 @@
 </t>
   </si>
   <si>
-    <t>Opening time of day (ignored if allDay = true)</t>
+    <t>heureDebut (Horaire) : Heure de début de la plage horaire</t>
   </si>
   <si>
     <t>The opening time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
@@ -1480,7 +1515,7 @@
     <t>PractitionerRole.availableTime.availableEndTime</t>
   </si>
   <si>
-    <t>Closing time of day (ignored if allDay = true)</t>
+    <t>heureFin (Horaire) : Heure de fin de la plage horaire</t>
   </si>
   <si>
     <t>The closing time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
@@ -1847,7 +1882,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1856,9 +1891,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.99609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="84.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.02734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1866,7 +1901,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="130.046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1881,10 +1916,10 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="108.4375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="133.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="135.0390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2258,7 +2293,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>84</v>
@@ -2379,10 +2414,10 @@
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -2393,9 +2428,7 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -2444,7 +2477,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2453,16 +2486,16 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>74</v>
@@ -2473,21 +2506,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2534,28 +2567,28 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>114</v>
@@ -2564,19 +2597,19 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
@@ -2587,14 +2620,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2610,19 +2643,19 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2672,7 +2705,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2690,7 +2723,7 @@
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2701,21 +2734,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -2724,19 +2757,19 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2786,25 +2819,25 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2815,10 +2848,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2826,11 +2859,11 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
       </c>
@@ -2838,18 +2871,20 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2886,37 +2921,37 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2927,14 +2962,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2943,7 +2976,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -2952,18 +2985,20 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -3012,7 +3047,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3024,13 +3059,13 @@
         <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -3041,10 +3076,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3055,7 +3090,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -3064,18 +3099,20 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -3100,13 +3137,13 @@
         <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>74</v>
@@ -3124,25 +3161,25 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -3156,7 +3193,7 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3167,7 +3204,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3176,18 +3213,20 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -3212,31 +3251,31 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3248,13 +3287,13 @@
         <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>74</v>
@@ -3265,18 +3304,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>84</v>
@@ -3288,19 +3329,19 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3308,67 +3349,65 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3379,10 +3418,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3399,22 +3438,22 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3464,7 +3503,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3479,13 +3518,13 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3493,14 +3532,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>74</v>
       </c>
@@ -3521,15 +3558,17 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3554,13 +3593,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3578,25 +3617,25 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3607,14 +3646,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3633,15 +3672,17 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3690,7 +3731,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3699,16 +3740,16 @@
         <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3719,21 +3760,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3745,15 +3786,17 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3790,19 +3833,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3811,16 +3854,16 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3831,10 +3874,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3842,10 +3885,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3857,24 +3900,22 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>74</v>
@@ -3904,37 +3945,37 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3945,18 +3986,20 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -3971,13 +4014,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4004,13 +4047,13 @@
         <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>74</v>
@@ -4028,25 +4071,25 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -4057,12 +4100,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>74</v>
       </c>
@@ -4083,13 +4128,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4140,25 +4185,25 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -4169,21 +4214,23 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -4195,17 +4242,15 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -4242,19 +4287,19 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4266,7 +4311,7 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -4283,10 +4328,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4297,7 +4342,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4306,23 +4351,19 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4370,25 +4411,25 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4399,10 +4440,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4413,7 +4454,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4425,13 +4466,13 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4470,37 +4511,37 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4511,21 +4552,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4537,16 +4578,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4554,7 +4595,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4584,31 +4625,31 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4625,10 +4666,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4648,29 +4689,25 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>74</v>
@@ -4688,31 +4725,29 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4727,10 +4762,10 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4741,12 +4776,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4764,20 +4801,18 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4802,13 +4837,11 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4826,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4841,10 +4874,10 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4855,12 +4888,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4878,23 +4913,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4942,25 +4973,25 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4971,12 +5002,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4994,23 +5027,19 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -5058,25 +5087,25 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -5087,18 +5116,20 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -5110,23 +5141,19 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -5174,25 +5201,25 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
@@ -5203,12 +5230,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5226,23 +5255,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5290,25 +5315,25 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -5319,44 +5344,46 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5392,19 +5419,19 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5416,7 +5443,7 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -5433,14 +5460,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5458,19 +5483,21 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5518,7 +5545,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5530,41 +5557,39 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5572,134 +5597,140 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J34" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5736,51 +5767,51 @@
         <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5788,10 +5819,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5803,18 +5834,18 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5862,39 +5893,39 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5917,26 +5948,22 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q36" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5980,7 +6007,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5992,27 +6019,27 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6020,7 +6047,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>84</v>
@@ -6035,19 +6062,19 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -6072,13 +6099,11 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -6096,39 +6121,39 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6139,7 +6164,7 @@
         <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -6151,16 +6176,16 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6186,52 +6211,50 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>308</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6239,18 +6262,20 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>84</v>
@@ -6265,16 +6290,16 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6300,13 +6325,11 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6324,28 +6347,28 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6353,18 +6376,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>84</v>
@@ -6379,20 +6404,18 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6416,11 +6439,11 @@
         <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6438,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6453,13 +6476,13 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6467,21 +6490,23 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6493,16 +6518,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6528,29 +6553,29 @@
         <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6565,13 +6590,13 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6579,20 +6604,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>84</v>
@@ -6607,16 +6632,16 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6642,11 +6667,11 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6664,7 +6689,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6679,13 +6704,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6693,13 +6718,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>74</v>
@@ -6721,16 +6746,16 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6756,11 +6781,11 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6778,7 +6803,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6793,13 +6818,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6807,13 +6832,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>74</v>
@@ -6835,16 +6860,16 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6870,7 +6895,7 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
@@ -6892,7 +6917,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6907,13 +6932,13 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6924,7 +6949,7 @@
         <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>343</v>
@@ -6949,16 +6974,16 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6984,11 +7009,11 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -7006,7 +7031,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7021,13 +7046,13 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -7035,13 +7060,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>74</v>
@@ -7063,16 +7088,16 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7098,11 +7123,11 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7120,7 +7145,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7135,13 +7160,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -7149,13 +7174,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>74</v>
@@ -7177,16 +7202,16 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7212,11 +7237,11 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -7234,7 +7259,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7249,13 +7274,13 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>74</v>
@@ -7263,13 +7288,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
@@ -7279,7 +7304,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7291,16 +7316,16 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7326,11 +7351,11 @@
         <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -7348,7 +7373,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7363,13 +7388,13 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>74</v>
@@ -7377,14 +7402,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7393,7 +7416,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7405,16 +7428,16 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>178</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7440,11 +7463,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7462,7 +7487,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7474,37 +7499,35 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>74</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>84</v>
@@ -7516,19 +7539,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>366</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7554,11 +7577,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7576,7 +7601,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7588,16 +7613,16 @@
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>332</v>
+        <v>74</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7605,14 +7630,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7621,7 +7644,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7633,18 +7656,18 @@
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7668,11 +7691,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7690,7 +7715,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7702,16 +7727,16 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7719,10 +7744,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7733,7 +7758,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7742,20 +7767,18 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>101</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7804,39 +7827,39 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>103</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>367</v>
+        <v>104</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>369</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7844,10 +7867,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7859,17 +7882,15 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>371</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
+        <v>194</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7906,19 +7927,19 @@
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7930,13 +7951,13 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7947,18 +7968,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>84</v>
@@ -7970,21 +7993,19 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8032,7 +8053,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>114</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8044,16 +8065,16 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>382</v>
+        <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>383</v>
+        <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>384</v>
+        <v>74</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>74</v>
@@ -8061,12 +8082,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8087,13 +8110,13 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>389</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8144,25 +8167,25 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -8173,21 +8196,23 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>387</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8199,13 +8224,13 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>132</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>133</v>
+        <v>396</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8244,19 +8269,19 @@
         <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8268,7 +8293,7 @@
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -8285,14 +8310,12 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8310,18 +8333,20 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>390</v>
+        <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8346,13 +8371,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8370,28 +8395,28 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>152</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>404</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8399,14 +8424,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8415,7 +8438,7 @@
         <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8424,19 +8447,23 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>393</v>
+        <v>100</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>132</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8484,28 +8511,28 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>152</v>
+        <v>413</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8513,44 +8540,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>396</v>
+        <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>132</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8574,13 +8603,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>74</v>
+        <v>422</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8598,28 +8627,28 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>152</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>74</v>
+        <v>425</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>74</v>
+        <v>426</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8627,10 +8656,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8653,16 +8682,16 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8688,13 +8717,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>401</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8712,7 +8741,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8721,19 +8750,19 @@
         <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>403</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8741,10 +8770,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8752,7 +8781,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>84</v>
@@ -8767,20 +8796,18 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8828,7 +8855,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8840,16 +8867,16 @@
         <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>413</v>
+        <v>98</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -8857,10 +8884,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8877,26 +8904,24 @@
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8920,13 +8945,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>422</v>
+        <v>74</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8944,13 +8969,13 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8959,13 +8984,13 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>426</v>
+        <v>74</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -8973,10 +8998,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8996,20 +9021,18 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>428</v>
+        <v>100</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>429</v>
+        <v>101</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -9058,7 +9081,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>432</v>
+        <v>103</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9067,16 +9090,16 @@
         <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -9087,21 +9110,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -9110,19 +9133,19 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>108</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>109</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9160,40 +9183,40 @@
         <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>436</v>
+        <v>114</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AM64" t="s" s="2">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9201,12 +9224,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>74</v>
       </c>
@@ -9227,17 +9252,15 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -9286,7 +9309,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>439</v>
+        <v>114</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9298,13 +9321,13 @@
         <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>444</v>
+        <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>
@@ -9315,12 +9338,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>74</v>
       </c>
@@ -9341,13 +9366,13 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>146</v>
+        <v>455</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>148</v>
+        <v>457</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9398,25 +9423,25 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>74</v>
@@ -9427,21 +9452,23 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -9453,17 +9480,15 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>460</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>189</v>
+        <v>461</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9500,19 +9525,19 @@
         <v>74</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9524,13 +9549,13 @@
         <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9541,16 +9566,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9563,22 +9586,26 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>132</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9626,7 +9653,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>152</v>
+        <v>467</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9638,13 +9665,13 @@
         <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9655,14 +9682,12 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9683,15 +9708,17 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>169</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>132</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9716,13 +9743,13 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>74</v>
+        <v>471</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -9740,7 +9767,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>152</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9752,13 +9779,13 @@
         <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9769,46 +9796,42 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>454</v>
+        <v>74</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9856,25 +9879,25 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>74</v>
@@ -9885,10 +9908,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9899,7 +9922,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9911,16 +9934,16 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>228</v>
+        <v>480</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9946,13 +9969,13 @@
         <v>74</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>461</v>
+        <v>74</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>462</v>
+        <v>74</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -9970,13 +9993,13 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>96</v>
@@ -9988,7 +10011,7 @@
         <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>
@@ -9999,10 +10022,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10025,15 +10048,17 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>243</v>
+        <v>477</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -10082,7 +10107,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10100,7 +10125,7 @@
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -10111,10 +10136,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10125,7 +10150,7 @@
         <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -10137,17 +10162,15 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>74</v>
@@ -10196,13 +10219,13 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>96</v>
@@ -10214,7 +10237,7 @@
         <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10225,10 +10248,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10251,17 +10274,15 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>472</v>
+        <v>101</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -10310,7 +10331,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10319,16 +10340,16 @@
         <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>444</v>
+        <v>104</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10339,14 +10360,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10365,15 +10386,17 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>440</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>475</v>
+        <v>108</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10410,19 +10433,19 @@
         <v>74</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10434,13 +10457,13 @@
         <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>444</v>
+        <v>98</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10451,42 +10474,46 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>147</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
       </c>
@@ -10534,25 +10561,25 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>149</v>
+        <v>467</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10563,21 +10590,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10589,16 +10616,16 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>189</v>
+        <v>491</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>190</v>
+        <v>492</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>191</v>
+        <v>400</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10636,37 +10663,37 @@
         <v>74</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>152</v>
+        <v>490</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10677,46 +10704,44 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>454</v>
+        <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10764,25 +10789,25 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10793,10 +10818,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10804,7 +10829,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>84</v>
@@ -10819,16 +10844,16 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10878,10 +10903,10 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>84</v>
@@ -10896,7 +10921,7 @@
         <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>74</v>
@@ -10907,10 +10932,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10921,7 +10946,7 @@
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -10933,18 +10958,20 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
       </c>
@@ -10992,260 +11019,30 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>486</v>
+        <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN82" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:40:11+00:00</t>
+    <t>2023-04-12T13:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T13:10:15+00:00</t>
+    <t>2023-04-12T14:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:18:07+00:00</t>
+    <t>2023-04-12T14:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:39:26+00:00</t>
+    <t>2023-04-12T15:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
